--- a/tests/data/vision/vision_97_en.xlsx
+++ b/tests/data/vision/vision_97_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\repos\playground\power-grid-model-io\tests\data\vision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AL24629\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84DB827-BF1E-4435-A2EB-434A21B052B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D2670B8-AA60-44E0-B6A2-56E0D57DEF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="7740" windowWidth="28275" windowHeight="7845" tabRatio="710" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="337">
   <si>
     <t>GUID</t>
   </si>
@@ -132,31 +132,31 @@
     <t>Feeders</t>
   </si>
   <si>
-    <t>{8110C18E-7FDF-4A43-B868-E05E1DD7909F}</t>
+    <t>{7FF722ED-33B3-4761-84AC-A164310D3C86}</t>
   </si>
   <si>
     <t>node1</t>
   </si>
   <si>
-    <t>{D507B771-AC81-41F5-A292-91CF6119BE70}</t>
+    <t>{1ED177A7-1F5D-4D81-8DE7-AB3E58512E0B}</t>
   </si>
   <si>
     <t>node2</t>
   </si>
   <si>
-    <t>{C92556BA-57E6-4780-A69E-DDDCA759BFBE}</t>
+    <t>{DDE3457B-DB9A-4DA9-9564-6F49E0F296BD}</t>
   </si>
   <si>
     <t>node3</t>
   </si>
   <si>
-    <t>{23C17CB9-7C1F-4AD0-B3C9-9B4AB99DB400}</t>
+    <t>{A79AFDE9-4096-4BEB-AB63-2B851D7FC6D1}</t>
   </si>
   <si>
     <t>node4</t>
   </si>
   <si>
-    <t>{915748FF-2EE0-4C5E-806A-DBBFC433BEA4}</t>
+    <t>{7848DBC8-9685-452C-89AF-9AB308224689}</t>
   </si>
   <si>
     <t>Cable.GUID</t>
@@ -252,7 +252,7 @@
     <t>m/µs</t>
   </si>
   <si>
-    <t>{5EDD4015-1972-4AD0-9713-41360E62E045}</t>
+    <t>{2FF748A9-78F3-4145-9E08-2CAEA5658F82}</t>
   </si>
   <si>
     <t>cable1</t>
@@ -321,13 +321,13 @@
     <t>#Line sections</t>
   </si>
   <si>
-    <t>{1E50FF6B-275F-486F-8EA4-BDABFC1CA0DA}</t>
+    <t>{B9558FB9-D06D-4B4D-A43F-0504597BD575}</t>
   </si>
   <si>
     <t>line1</t>
   </si>
   <si>
-    <t>{E0B947E7-2BB4-4646-BDF8-341FF53C8664}</t>
+    <t>{A4F61576-CFE1-4256-AF66-06AA0B7F5527}</t>
   </si>
   <si>
     <t>link1</t>
@@ -345,7 +345,7 @@
     <t>Ik (2s)</t>
   </si>
   <si>
-    <t>{30CEC7D2-5DD0-47A3-8338-26EC2EEC56EE}</t>
+    <t>{7EB807C6-F2ED-42D0-83C4-478CDCCE17F3}</t>
   </si>
   <si>
     <t>rcoil1</t>
@@ -492,7 +492,7 @@
     <t>Tap max</t>
   </si>
   <si>
-    <t>{70B24283-DA29-426B-9355-892A82632B71}</t>
+    <t>{D783FB03-DAF4-4471-B1AC-B74451717DF4}</t>
   </si>
   <si>
     <t>transformer1</t>
@@ -540,7 +540,7 @@
     <t>Pkmax</t>
   </si>
   <si>
-    <t>{042E9F44-BB2B-4C28-A369-3F9736797F5F}</t>
+    <t>{B46288EF-B591-45B1-8BAF-818BF23CB626}</t>
   </si>
   <si>
     <t>special_trans1</t>
@@ -726,7 +726,7 @@
     <t>Tap max a</t>
   </si>
   <si>
-    <t>{331BA082-29D3-489B-8720-1710F14EA07E}</t>
+    <t>{CA65D7DA-A029-4D30-867C-91D85ACADF41}</t>
   </si>
   <si>
     <t>Dyn5yn7</t>
@@ -780,7 +780,7 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>{47F9CE59-880D-4A79-B3A5-2813354046F2}</t>
+    <t>{65633711-995E-4B8E-B2BE-B554AA90E013}</t>
   </si>
   <si>
     <t>source1</t>
@@ -840,7 +840,7 @@
     <t>xd,sat</t>
   </si>
   <si>
-    <t>{97EA67F9-9806-4F70-AD1D-F54EC046B977}</t>
+    <t>{4B10F0F0-E728-4494-ABFF-613A2AA96524}</t>
   </si>
   <si>
     <t>syngen1</t>
@@ -873,7 +873,7 @@
     <t>Q control</t>
   </si>
   <si>
-    <t>{923D513A-4B33-4A25-B22C-D54B3F640B77}</t>
+    <t>{AC17891F-98ED-4539-AB95-3D22CDD27F4C}</t>
   </si>
   <si>
     <t>wind1</t>
@@ -915,7 +915,7 @@
     <t>Harmonic type</t>
   </si>
   <si>
-    <t>{3AAFA574-9F8B-4F5F-8D48-B44F7E3E15C6}</t>
+    <t>{2E0B8D28-9881-482A-B2F6-A92D90D2FEEB}</t>
   </si>
   <si>
     <t>load1</t>
@@ -966,37 +966,43 @@
     <t>Clock number</t>
   </si>
   <si>
-    <t>{7149A6A6-7221-4DB2-AC16-FE1CDDDA7BCE}</t>
+    <t>{A7821D13-99F5-42A5-8D0E-2BF4B0F1FD23}</t>
+  </si>
+  <si>
+    <t>transformer_load_2</t>
+  </si>
+  <si>
+    <t>2 % per year</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>YNyn0</t>
+  </si>
+  <si>
+    <t>{68A2AEA4-2263-4902-81CD-E06C114D727C}</t>
   </si>
   <si>
     <t>transformer_load_1</t>
   </si>
   <si>
-    <t>2 % per year</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>YNyn0</t>
-  </si>
-  <si>
     <t>Passive filter</t>
   </si>
   <si>
     <t>Active filter</t>
   </si>
   <si>
-    <t>{CC409767-39AA-41C7-A8FA-67ABFAEAB5B0}</t>
+    <t>{346C4567-5D4D-439A-BC74-BA77684040F9}</t>
   </si>
   <si>
     <t>shunt1</t>
   </si>
   <si>
-    <t>{521D04D6-B590-4DF1-9A84-E325D2503773}</t>
-  </si>
-  <si>
-    <t>{5F0A0061-7CDA-4E62-9D7E-D353E72000DB}</t>
+    <t>{394FBE07-A7FA-4249-B7FF-EC42A1C55303}</t>
+  </si>
+  <si>
+    <t>{1B60A9EB-9FB9-4C80-BDAC-717D8F24D428}</t>
   </si>
   <si>
     <t>zztrans1</t>
@@ -1035,7 +1041,7 @@
     <t>Inverter.cos phi</t>
   </si>
   <si>
-    <t>{37D7526E-4C67-4AF4-96EC-6385F96A60CD}</t>
+    <t>{186B67F9-F676-48CD-81A7-F5ECFDCB4EF2}</t>
   </si>
   <si>
     <t>pv1</t>
@@ -1123,9 +1129,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1163,7 +1169,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1269,7 +1275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1411,7 +1417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1421,39 +1427,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" customWidth="1"/>
-    <col min="21" max="22" width="5.85546875" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="11" width="5.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+    <col min="21" max="22" width="5.88671875" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1765,28 +1771,28 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1861,7 +1867,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>247</v>
       </c>
@@ -1921,42 +1927,42 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" customWidth="1"/>
+    <col min="19" max="19" width="5.88671875" customWidth="1"/>
+    <col min="20" max="20" width="6.88671875" customWidth="1"/>
+    <col min="21" max="21" width="6.5546875" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="6.77734375" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" customWidth="1"/>
+    <col min="26" max="26" width="7.21875" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
+    <col min="28" max="28" width="6.44140625" customWidth="1"/>
+    <col min="29" max="29" width="5.88671875" customWidth="1"/>
+    <col min="30" max="30" width="7.88671875" customWidth="1"/>
+    <col min="31" max="31" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>267</v>
       </c>
@@ -2192,31 +2198,31 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2306,7 @@
       </c>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -2360,34 +2366,34 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="17" width="5.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="11" width="5.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.21875" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" customWidth="1"/>
+    <col min="16" max="17" width="5.88671875" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="21.109375" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2469,7 +2475,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -2520,57 +2526,57 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
-    <col min="26" max="27" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" customWidth="1"/>
+    <col min="23" max="23" width="21.109375" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" customWidth="1"/>
+    <col min="25" max="25" width="14.77734375" customWidth="1"/>
+    <col min="26" max="27" width="5.88671875" customWidth="1"/>
     <col min="28" max="28" width="11" customWidth="1"/>
-    <col min="29" max="29" width="6.5703125" customWidth="1"/>
+    <col min="29" max="29" width="6.5546875" customWidth="1"/>
     <col min="30" max="31" width="8" customWidth="1"/>
-    <col min="32" max="34" width="5.85546875" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" customWidth="1"/>
-    <col min="38" max="38" width="8.5703125" customWidth="1"/>
-    <col min="39" max="39" width="8.7109375" customWidth="1"/>
-    <col min="40" max="40" width="9.28515625" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" customWidth="1"/>
+    <col min="32" max="34" width="5.88671875" customWidth="1"/>
+    <col min="35" max="35" width="11.6640625" customWidth="1"/>
+    <col min="36" max="36" width="13.88671875" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" customWidth="1"/>
+    <col min="38" max="38" width="8.5546875" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" customWidth="1"/>
+    <col min="40" max="40" width="9.33203125" customWidth="1"/>
+    <col min="41" max="41" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2751,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>309</v>
       </c>
@@ -2780,10 +2786,10 @@
         <v>312</v>
       </c>
       <c r="O3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
         <v>249</v>
@@ -2792,7 +2798,7 @@
         <v>294</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>249</v>
@@ -2849,6 +2855,113 @@
         <v>2</v>
       </c>
       <c r="AO3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M4" t="s">
+        <v>311</v>
+      </c>
+      <c r="N4" t="s">
+        <v>312</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>249</v>
+      </c>
+      <c r="R4" t="s">
+        <v>294</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>249</v>
+      </c>
+      <c r="U4" t="s">
+        <v>294</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>500</v>
+      </c>
+      <c r="AD4">
+        <v>0.4</v>
+      </c>
+      <c r="AE4">
+        <v>0.2</v>
+      </c>
+      <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
+        <v>40</v>
+      </c>
+      <c r="AH4">
+        <v>50</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>0.01</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
         <v>4</v>
       </c>
     </row>
@@ -2868,26 +2981,26 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2928,13 +3041,13 @@
         <v>246</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2948,12 +3061,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -3002,23 +3115,23 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +3169,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3067,9 +3180,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -3109,22 +3222,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="12" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="12" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3173,12 +3286,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -3193,7 +3306,7 @@
         <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3218,30 +3331,30 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3270,13 +3383,13 @@
         <v>236</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>246</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>47</v>
@@ -3285,33 +3398,33 @@
         <v>275</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>305</v>
@@ -3321,12 +3434,12 @@
       </c>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -3359,7 +3472,7 @@
         <v>500</v>
       </c>
       <c r="P3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="R3" t="s">
         <v>281</v>
@@ -3384,35 +3497,35 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" customWidth="1"/>
-    <col min="19" max="20" width="9.28515625" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" customWidth="1"/>
+    <col min="16" max="17" width="9.21875" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" customWidth="1"/>
+    <col min="19" max="20" width="9.21875" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" customWidth="1"/>
+    <col min="23" max="23" width="5.88671875" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -3492,7 +3605,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="H2" s="3" t="s">
@@ -3549,7 +3662,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3639,36 +3752,36 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" customWidth="1"/>
-    <col min="19" max="20" width="9.7109375" customWidth="1"/>
-    <col min="21" max="22" width="8.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" customWidth="1"/>
+    <col min="17" max="17" width="6.5546875" customWidth="1"/>
+    <col min="18" max="18" width="6.88671875" customWidth="1"/>
+    <col min="19" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="22" width="8.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="24" max="24" width="8.5546875" customWidth="1"/>
+    <col min="25" max="25" width="5.88671875" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3864,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3791,7 +3904,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3875,33 +3988,33 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="18" width="6.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
-    <col min="20" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="17" max="18" width="6.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.88671875" customWidth="1"/>
+    <col min="20" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="5.88671875" customWidth="1"/>
+    <col min="23" max="23" width="6.5546875" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3975,7 +4088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4008,7 +4121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -4083,28 +4196,28 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="17" max="17" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4157,7 +4270,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +4284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -4219,32 +4332,32 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" customWidth="1"/>
-    <col min="20" max="25" width="5.85546875" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
+    <col min="19" max="19" width="6.88671875" customWidth="1"/>
+    <col min="20" max="25" width="5.88671875" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4324,7 +4437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4359,7 +4472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -4440,60 +4553,61 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" customWidth="1"/>
-    <col min="19" max="20" width="5.85546875" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="23" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" customWidth="1"/>
+    <col min="19" max="20" width="5.88671875" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" customWidth="1"/>
+    <col min="22" max="23" width="5.88671875" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" customWidth="1"/>
-    <col min="29" max="29" width="13.5703125" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
-    <col min="32" max="33" width="5.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" customWidth="1"/>
-    <col min="35" max="42" width="5.85546875" customWidth="1"/>
-    <col min="43" max="43" width="21.140625" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" customWidth="1"/>
+    <col min="28" max="28" width="6.109375" customWidth="1"/>
+    <col min="29" max="29" width="13.5546875" customWidth="1"/>
+    <col min="30" max="30" width="5.88671875" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" customWidth="1"/>
+    <col min="33" max="33" width="5.88671875" customWidth="1"/>
+    <col min="34" max="34" width="7.6640625" customWidth="1"/>
+    <col min="35" max="42" width="5.88671875" customWidth="1"/>
+    <col min="43" max="43" width="21.109375" customWidth="1"/>
     <col min="44" max="44" width="11" customWidth="1"/>
-    <col min="45" max="45" width="6.5703125" customWidth="1"/>
+    <col min="45" max="45" width="6.5546875" customWidth="1"/>
     <col min="46" max="47" width="8" customWidth="1"/>
-    <col min="48" max="49" width="5.85546875" customWidth="1"/>
-    <col min="50" max="50" width="6.28515625" customWidth="1"/>
-    <col min="51" max="51" width="5.85546875" customWidth="1"/>
-    <col min="52" max="52" width="7.42578125" customWidth="1"/>
-    <col min="53" max="53" width="6.28515625" customWidth="1"/>
-    <col min="54" max="54" width="7.85546875" customWidth="1"/>
-    <col min="55" max="55" width="6.85546875" customWidth="1"/>
-    <col min="56" max="56" width="11.7109375" customWidth="1"/>
-    <col min="57" max="57" width="8.85546875" customWidth="1"/>
-    <col min="58" max="58" width="8.5703125" customWidth="1"/>
-    <col min="59" max="59" width="8.7109375" customWidth="1"/>
-    <col min="60" max="60" width="9.28515625" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" customWidth="1"/>
+    <col min="48" max="49" width="5.88671875" customWidth="1"/>
+    <col min="50" max="50" width="6.33203125" customWidth="1"/>
+    <col min="51" max="51" width="5.88671875" customWidth="1"/>
+    <col min="52" max="52" width="7.44140625" customWidth="1"/>
+    <col min="53" max="53" width="6.33203125" customWidth="1"/>
+    <col min="54" max="54" width="7.88671875" customWidth="1"/>
+    <col min="55" max="55" width="6.88671875" customWidth="1"/>
+    <col min="56" max="56" width="11.6640625" customWidth="1"/>
+    <col min="57" max="57" width="8.88671875" customWidth="1"/>
+    <col min="58" max="58" width="8.5546875" customWidth="1"/>
+    <col min="59" max="59" width="8.6640625" customWidth="1"/>
+    <col min="60" max="60" width="9.33203125" customWidth="1"/>
+    <col min="61" max="61" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4678,7 +4792,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4782,7 +4896,7 @@
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -4835,13 +4949,28 @@
         <v>0</v>
       </c>
       <c r="AA3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>0.4</v>
+      </c>
+      <c r="AE3">
+        <v>0.1</v>
+      </c>
+      <c r="AF3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>1</v>
       </c>
       <c r="AQ3" t="s">
         <v>155</v>
@@ -4917,56 +5046,57 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="42.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" customWidth="1"/>
-    <col min="24" max="25" width="5.85546875" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" customWidth="1"/>
-    <col min="27" max="34" width="5.85546875" customWidth="1"/>
-    <col min="35" max="35" width="27.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" customWidth="1"/>
+    <col min="22" max="22" width="5.88671875" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+    <col min="25" max="25" width="5.88671875" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
+    <col min="27" max="34" width="5.88671875" customWidth="1"/>
+    <col min="35" max="35" width="27.44140625" customWidth="1"/>
     <col min="36" max="36" width="11" customWidth="1"/>
-    <col min="37" max="37" width="8.28515625" customWidth="1"/>
-    <col min="38" max="38" width="6.85546875" customWidth="1"/>
+    <col min="37" max="37" width="8.33203125" customWidth="1"/>
+    <col min="38" max="38" width="6.88671875" customWidth="1"/>
     <col min="39" max="40" width="8" customWidth="1"/>
-    <col min="41" max="41" width="7.140625" customWidth="1"/>
-    <col min="42" max="42" width="7.7109375" customWidth="1"/>
-    <col min="43" max="43" width="7.42578125" customWidth="1"/>
-    <col min="44" max="44" width="7.140625" customWidth="1"/>
-    <col min="45" max="45" width="7.7109375" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" customWidth="1"/>
-    <col min="47" max="49" width="5.85546875" customWidth="1"/>
-    <col min="50" max="50" width="6.28515625" customWidth="1"/>
-    <col min="51" max="51" width="6.85546875" customWidth="1"/>
-    <col min="52" max="52" width="8.85546875" customWidth="1"/>
-    <col min="53" max="53" width="8.5703125" customWidth="1"/>
-    <col min="54" max="54" width="8.7109375" customWidth="1"/>
-    <col min="55" max="55" width="9.28515625" customWidth="1"/>
-    <col min="56" max="56" width="9.140625" customWidth="1"/>
+    <col min="41" max="41" width="7.109375" customWidth="1"/>
+    <col min="42" max="42" width="7.6640625" customWidth="1"/>
+    <col min="43" max="43" width="7.44140625" customWidth="1"/>
+    <col min="44" max="44" width="7.109375" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" customWidth="1"/>
+    <col min="46" max="46" width="7.44140625" customWidth="1"/>
+    <col min="47" max="49" width="5.88671875" customWidth="1"/>
+    <col min="50" max="50" width="6.33203125" customWidth="1"/>
+    <col min="51" max="51" width="6.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.88671875" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" customWidth="1"/>
+    <col min="54" max="54" width="8.6640625" customWidth="1"/>
+    <col min="55" max="55" width="9.33203125" customWidth="1"/>
+    <col min="56" max="56" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5136,7 +5266,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
@@ -5237,7 +5367,7 @@
       <c r="BC2" s="3"/>
       <c r="BD2" s="3"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -5278,13 +5408,28 @@
         <v>0</v>
       </c>
       <c r="S3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>0.1</v>
+      </c>
+      <c r="X3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
       </c>
       <c r="AI3" t="s">
         <v>169</v>
@@ -5369,60 +5514,61 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="41.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="23" width="5.85546875" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" customWidth="1"/>
-    <col min="25" max="26" width="5.85546875" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" customWidth="1"/>
-    <col min="28" max="29" width="5.85546875" customWidth="1"/>
-    <col min="30" max="32" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="41.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.21875" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" customWidth="1"/>
+    <col min="22" max="23" width="5.88671875" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
+    <col min="25" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" customWidth="1"/>
+    <col min="28" max="29" width="5.88671875" customWidth="1"/>
+    <col min="30" max="32" width="8.109375" customWidth="1"/>
     <col min="33" max="34" width="14" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="8.140625" customWidth="1"/>
-    <col min="37" max="37" width="5.85546875" customWidth="1"/>
-    <col min="38" max="38" width="7.42578125" customWidth="1"/>
-    <col min="39" max="41" width="5.85546875" customWidth="1"/>
-    <col min="42" max="44" width="7.7109375" customWidth="1"/>
+    <col min="35" max="35" width="13.5546875" customWidth="1"/>
+    <col min="36" max="36" width="8.109375" customWidth="1"/>
+    <col min="37" max="37" width="5.88671875" customWidth="1"/>
+    <col min="38" max="38" width="7.44140625" customWidth="1"/>
+    <col min="39" max="39" width="6.33203125" customWidth="1"/>
+    <col min="40" max="41" width="5.88671875" customWidth="1"/>
+    <col min="42" max="44" width="7.6640625" customWidth="1"/>
     <col min="45" max="47" width="8" customWidth="1"/>
-    <col min="48" max="53" width="5.85546875" customWidth="1"/>
-    <col min="54" max="56" width="6.85546875" customWidth="1"/>
-    <col min="57" max="64" width="5.85546875" customWidth="1"/>
-    <col min="65" max="67" width="7.42578125" customWidth="1"/>
-    <col min="68" max="68" width="11.7109375" customWidth="1"/>
-    <col min="69" max="69" width="10.28515625" customWidth="1"/>
+    <col min="48" max="53" width="5.88671875" customWidth="1"/>
+    <col min="54" max="56" width="6.88671875" customWidth="1"/>
+    <col min="57" max="64" width="5.88671875" customWidth="1"/>
+    <col min="65" max="67" width="7.44140625" customWidth="1"/>
+    <col min="68" max="68" width="11.6640625" customWidth="1"/>
+    <col min="69" max="69" width="10.33203125" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="71" width="10.140625" customWidth="1"/>
-    <col min="72" max="72" width="10.7109375" customWidth="1"/>
-    <col min="73" max="74" width="10.42578125" customWidth="1"/>
-    <col min="75" max="75" width="10.140625" customWidth="1"/>
-    <col min="76" max="76" width="10.28515625" customWidth="1"/>
-    <col min="77" max="77" width="10.85546875" customWidth="1"/>
-    <col min="78" max="78" width="10.7109375" customWidth="1"/>
+    <col min="71" max="71" width="10.109375" customWidth="1"/>
+    <col min="72" max="72" width="10.77734375" customWidth="1"/>
+    <col min="73" max="74" width="10.44140625" customWidth="1"/>
+    <col min="75" max="75" width="10.109375" customWidth="1"/>
+    <col min="76" max="76" width="10.21875" customWidth="1"/>
+    <col min="77" max="77" width="10.88671875" customWidth="1"/>
+    <col min="78" max="78" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5658,7 +5804,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -5802,7 +5948,7 @@
       <c r="BY2" s="3"/>
       <c r="BZ2" s="3"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -5879,19 +6025,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AN3">
         <v>0</v>
